--- a/Figures/summaries_csvs/exceedances/model_summary.xlsx
+++ b/Figures/summaries_csvs/exceedances/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/exceedances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BF9DC-5388-7049-BF0A-044C9490A32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC9116-C138-4345-97DE-23936E0AF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Analyte</t>
   </si>
@@ -306,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -470,11 +470,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -516,10 +534,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +876,13 @@
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="37" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1145,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1264,97 +1300,192 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L25" s="30" t="s">
+    <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M26" s="31" t="s">
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+    </row>
+    <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L27" s="1" t="s">
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M33" s="34"/>
+      <c r="N33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="M34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="M35" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="M36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+    </row>
+    <row r="42" spans="13:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="T42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S43" s="34"/>
+      <c r="T43" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="U43" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="V43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="W43" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L28" s="1" t="s">
+    <row r="44" spans="13:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="S44" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="U44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L29" s="1" t="s">
+    <row r="45" spans="13:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="S45" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="V45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
+    <row r="46" spans="13:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="S46" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L31" s="1" t="s">
+    <row r="47" spans="13:23" ht="85" x14ac:dyDescent="0.2">
+      <c r="S47" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="T47" s="13"/>
+      <c r="U47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="V47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="W47" s="13" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="L25:P25"/>
+  <mergeCells count="6">
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:W42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/exceedances/model_summary.xlsx
+++ b/Figures/summaries_csvs/exceedances/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/exceedances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC9116-C138-4345-97DE-23936E0AF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C54A7-62A7-9D46-B938-A1F072E5AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -18,6 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">exceedances!$AA$53</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">exceedances!$AA$54:$AA$58</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">exceedances!$AB$53</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">exceedances!$AB$54:$AB$58</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">exceedances!$Z$53</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">exceedances!$Z$54:$Z$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
   <si>
     <t>Analyte</t>
   </si>
@@ -238,12 +244,55 @@
   </si>
   <si>
     <t>Table X. Analytes and standards/limits analyzed via logistic regression</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>AI, Cu, HW</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>AI, Mn, GM</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Prob - Winter</t>
+  </si>
+  <si>
+    <t>Prob - Monsoon</t>
+  </si>
+  <si>
+    <t>AI, Zn, TU</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Not a very reliable model; not normal, low R2</t>
+  </si>
+  <si>
+    <t>Table X. Summary of Agricultural Irrigation Exceedance Probabiities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -492,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -518,6 +567,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,22 +601,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,6 +648,1021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Probability of AI Exceedance - Cu, Hayden/Winkelman</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exceedances!$AA$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob - Winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exceedances!$Z$54:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exceedances!$AA$54:$AA$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1067679999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6850040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8774519999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>9.4780699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>4.76254E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DD0-8D47-B9EF-08F59BE3CDD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>exceedances!$AB$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob - Monsoon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exceedances!$Z$54:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exceedances!$AB$54:$AB$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37786134999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2329756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13186895000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>7.0601689999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>3.659958E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DD0-8D47-B9EF-08F59BE3CDD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="142856607"/>
+        <c:axId val="258248207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="142856607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258248207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258248207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142856607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A9261D-BC7D-36E0-B2A7-253EF0402626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="V46" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,27 +2398,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="M33" s="34"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +2433,7 @@
       </c>
     </row>
     <row r="34" spans="13:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M34" s="30" t="s">
+      <c r="M34" s="25" t="s">
         <v>56</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -1350,7 +2447,7 @@
       </c>
     </row>
     <row r="35" spans="13:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="25" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -1367,7 +2464,7 @@
       </c>
     </row>
     <row r="36" spans="13:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="25" t="s">
         <v>54</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -1375,7 +2472,7 @@
       </c>
     </row>
     <row r="37" spans="13:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M37" s="35" t="s">
+      <c r="M37" s="26" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="13"/>
@@ -1390,27 +2487,27 @@
       </c>
     </row>
     <row r="41" spans="13:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S41" s="31" t="s">
+      <c r="S41" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
     </row>
     <row r="42" spans="13:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="S42" s="32" t="s">
+      <c r="S42" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="33" t="s">
+      <c r="T42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="S43" s="34"/>
+      <c r="S43" s="30"/>
       <c r="T43" s="13" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +2522,7 @@
       </c>
     </row>
     <row r="44" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S44" s="30" t="s">
+      <c r="S44" s="25" t="s">
         <v>56</v>
       </c>
       <c r="U44" s="1" t="s">
@@ -1439,7 +2536,7 @@
       </c>
     </row>
     <row r="45" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S45" s="30" t="s">
+      <c r="S45" s="25" t="s">
         <v>55</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -1456,7 +2553,7 @@
       </c>
     </row>
     <row r="46" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S46" s="30" t="s">
+      <c r="S46" s="25" t="s">
         <v>54</v>
       </c>
       <c r="W46" s="1" t="s">
@@ -1464,7 +2561,7 @@
       </c>
     </row>
     <row r="47" spans="13:23" ht="85" x14ac:dyDescent="0.2">
-      <c r="S47" s="35" t="s">
+      <c r="S47" s="26" t="s">
         <v>57</v>
       </c>
       <c r="T47" s="13"/>
@@ -1478,8 +2575,272 @@
         <v>62</v>
       </c>
     </row>
+    <row r="51" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y51" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="36"/>
+    </row>
+    <row r="52" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y52" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z52" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y53" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB53" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="45">
+        <v>7.1067679999999994E-2</v>
+      </c>
+      <c r="AB54" s="48">
+        <v>0.37786134999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AA55" s="45">
+        <v>3.6850040000000001E-2</v>
+      </c>
+      <c r="AB55" s="48">
+        <v>0.2329756</v>
+      </c>
+    </row>
+    <row r="56" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="45">
+        <v>1.8774519999999999E-2</v>
+      </c>
+      <c r="AB56" s="48">
+        <v>0.13186895000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AA57" s="42">
+        <v>9.4780699999999999E-3</v>
+      </c>
+      <c r="AB57" s="45">
+        <v>7.0601689999999995E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="43">
+        <v>4.76254E-3</v>
+      </c>
+      <c r="AB58" s="46">
+        <v>3.659958E-2</v>
+      </c>
+      <c r="AC58" s="13"/>
+    </row>
+    <row r="59" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y59" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC59" s="52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="47">
+        <v>6.1733623452348702E-2</v>
+      </c>
+      <c r="AC60" s="53"/>
+    </row>
+    <row r="61" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="47">
+        <v>1.20772053410085E-2</v>
+      </c>
+      <c r="AC61" s="53"/>
+    </row>
+    <row r="62" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="44">
+        <v>2.2662402083130201E-3</v>
+      </c>
+      <c r="AC62" s="53"/>
+    </row>
+    <row r="63" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA63" s="41">
+        <v>4.2184786680835203E-4</v>
+      </c>
+      <c r="AC63" s="53"/>
+    </row>
+    <row r="64" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA64" s="41">
+        <v>7.8406646322768398E-5</v>
+      </c>
+      <c r="AC64" s="53"/>
+    </row>
+    <row r="65" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="13">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="40">
+        <v>1.4568956039108299E-5</v>
+      </c>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="54"/>
+    </row>
+    <row r="66" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y66" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC66" s="52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="47">
+        <v>4.213704983443E-2</v>
+      </c>
+      <c r="AC67" s="53"/>
+    </row>
+    <row r="68" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA68" s="49">
+        <v>0.70383460067707004</v>
+      </c>
+      <c r="AC68" s="53"/>
+    </row>
+    <row r="69" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA69" s="49">
+        <v>0.99227108557330002</v>
+      </c>
+      <c r="AC69" s="53"/>
+    </row>
+    <row r="70" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA70" s="50">
+        <v>0.99985583826317304</v>
+      </c>
+      <c r="AC70" s="53"/>
+    </row>
+    <row r="71" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA71" s="50">
+        <v>0.99999733107778499</v>
+      </c>
+      <c r="AC71" s="53"/>
+    </row>
+    <row r="72" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA72" s="50">
+        <v>0.99999995059606805</v>
+      </c>
+      <c r="AC72" s="53"/>
+    </row>
+    <row r="73" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="13">
+        <v>24</v>
+      </c>
+      <c r="AA73" s="51">
+        <v>0.99999999908549497</v>
+      </c>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y53:Y58"/>
+    <mergeCell ref="Y59:Y65"/>
+    <mergeCell ref="Y66:Y73"/>
+    <mergeCell ref="AC59:AC65"/>
+    <mergeCell ref="AC66:AC73"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -1488,6 +2849,7 @@
     <mergeCell ref="T42:W42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1505,35 +2867,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/exceedances/model_summary.xlsx
+++ b/Figures/summaries_csvs/exceedances/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/exceedances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C54A7-62A7-9D46-B938-A1F072E5AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F3452-D67B-974B-BAFB-0C5C1FE60D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -18,12 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">exceedances!$AA$53</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">exceedances!$AA$54:$AA$58</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">exceedances!$AB$53</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">exceedances!$AB$54:$AB$58</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">exceedances!$Z$53</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">exceedances!$Z$54:$Z$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -287,11 +281,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -573,6 +567,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,9 +610,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,39 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,6 +900,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance From Smelter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (km)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1965,7 +2019,7 @@
   <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V46" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+      <selection activeCell="AI72" sqref="AI72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,27 +2452,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="27" t="s">
+      <c r="N32" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="M33" s="30"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -2487,27 +2541,27 @@
       </c>
     </row>
     <row r="41" spans="13:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S41" s="28" t="s">
+      <c r="S41" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
     </row>
     <row r="42" spans="13:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="S42" s="29" t="s">
+      <c r="S42" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="27" t="s">
+      <c r="T42" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="S43" s="30"/>
+      <c r="S43" s="43"/>
       <c r="T43" s="13" t="s">
         <v>21</v>
       </c>
@@ -2576,29 +2630,29 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="36" t="s">
+      <c r="Y51" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z52" s="37" t="s">
+      <c r="Z52" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
       <c r="AC52" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="38" t="s">
+      <c r="Y53" s="41" t="s">
         <v>67</v>
       </c>
       <c r="Z53" s="8" t="s">
@@ -2612,68 +2666,68 @@
       </c>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="39"/>
+      <c r="Y54" s="42"/>
       <c r="Z54" s="8">
         <v>0</v>
       </c>
-      <c r="AA54" s="45">
+      <c r="AA54" s="32">
         <v>7.1067679999999994E-2</v>
       </c>
-      <c r="AB54" s="48">
+      <c r="AB54" s="35">
         <v>0.37786134999999998</v>
       </c>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="39"/>
+      <c r="Y55" s="42"/>
       <c r="Z55" s="8">
         <v>0.5</v>
       </c>
-      <c r="AA55" s="45">
+      <c r="AA55" s="32">
         <v>3.6850040000000001E-2</v>
       </c>
-      <c r="AB55" s="48">
+      <c r="AB55" s="35">
         <v>0.2329756</v>
       </c>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="39"/>
+      <c r="Y56" s="42"/>
       <c r="Z56" s="8">
         <v>1</v>
       </c>
-      <c r="AA56" s="45">
+      <c r="AA56" s="32">
         <v>1.8774519999999999E-2</v>
       </c>
-      <c r="AB56" s="48">
+      <c r="AB56" s="35">
         <v>0.13186895000000001</v>
       </c>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="39"/>
+      <c r="Y57" s="42"/>
       <c r="Z57" s="8">
         <v>1.5</v>
       </c>
-      <c r="AA57" s="42">
+      <c r="AA57" s="29">
         <v>9.4780699999999999E-3</v>
       </c>
-      <c r="AB57" s="45">
+      <c r="AB57" s="32">
         <v>7.0601689999999995E-2</v>
       </c>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="30"/>
+      <c r="Y58" s="43"/>
       <c r="Z58" s="11">
         <v>2</v>
       </c>
-      <c r="AA58" s="43">
+      <c r="AA58" s="30">
         <v>4.76254E-3</v>
       </c>
-      <c r="AB58" s="46">
+      <c r="AB58" s="33">
         <v>3.659958E-2</v>
       </c>
       <c r="AC58" s="13"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="38" t="s">
+      <c r="Y59" s="41" t="s">
         <v>69</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -2682,73 +2736,73 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="52" t="s">
+      <c r="AC59" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="39"/>
+      <c r="Y60" s="42"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
-      <c r="AA60" s="47">
+      <c r="AA60" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC60" s="53"/>
+      <c r="AC60" s="45"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="39"/>
+      <c r="Y61" s="42"/>
       <c r="Z61" s="1">
         <v>2</v>
       </c>
-      <c r="AA61" s="47">
+      <c r="AA61" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC61" s="53"/>
+      <c r="AC61" s="45"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="39"/>
+      <c r="Y62" s="42"/>
       <c r="Z62" s="1">
         <v>4</v>
       </c>
-      <c r="AA62" s="44">
+      <c r="AA62" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC62" s="53"/>
+      <c r="AC62" s="45"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="39"/>
+      <c r="Y63" s="42"/>
       <c r="Z63" s="1">
         <v>6</v>
       </c>
-      <c r="AA63" s="41">
+      <c r="AA63" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC63" s="53"/>
+      <c r="AC63" s="45"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="39"/>
+      <c r="Y64" s="42"/>
       <c r="Z64" s="1">
         <v>8</v>
       </c>
-      <c r="AA64" s="41">
+      <c r="AA64" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC64" s="53"/>
+      <c r="AC64" s="45"/>
     </row>
     <row r="65" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y65" s="30"/>
+      <c r="Y65" s="43"/>
       <c r="Z65" s="13">
         <v>10</v>
       </c>
-      <c r="AA65" s="40">
+      <c r="AA65" s="27">
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB65" s="13"/>
-      <c r="AC65" s="54"/>
+      <c r="AC65" s="46"/>
     </row>
     <row r="66" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y66" s="38" t="s">
+      <c r="Y66" s="41" t="s">
         <v>73</v>
       </c>
       <c r="Z66" s="1" t="s">
@@ -2757,83 +2811,89 @@
       <c r="AA66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC66" s="52" t="s">
+      <c r="AC66" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y67" s="39"/>
+      <c r="Y67" s="42"/>
       <c r="Z67" s="1">
         <v>0</v>
       </c>
-      <c r="AA67" s="47">
+      <c r="AA67" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC67" s="53"/>
+      <c r="AC67" s="45"/>
     </row>
     <row r="68" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y68" s="39"/>
+      <c r="Y68" s="42"/>
       <c r="Z68" s="1">
         <v>4</v>
       </c>
-      <c r="AA68" s="49">
+      <c r="AA68" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC68" s="53"/>
+      <c r="AC68" s="45"/>
     </row>
     <row r="69" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y69" s="39"/>
+      <c r="Y69" s="42"/>
       <c r="Z69" s="1">
         <v>8</v>
       </c>
-      <c r="AA69" s="49">
+      <c r="AA69" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC69" s="53"/>
+      <c r="AC69" s="45"/>
     </row>
     <row r="70" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y70" s="39"/>
+      <c r="Y70" s="42"/>
       <c r="Z70" s="1">
         <v>12</v>
       </c>
-      <c r="AA70" s="50">
+      <c r="AA70" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC70" s="53"/>
+      <c r="AC70" s="45"/>
     </row>
     <row r="71" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y71" s="39"/>
+      <c r="Y71" s="42"/>
       <c r="Z71" s="1">
         <v>16</v>
       </c>
-      <c r="AA71" s="50">
+      <c r="AA71" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC71" s="53"/>
+      <c r="AC71" s="45"/>
     </row>
     <row r="72" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y72" s="39"/>
+      <c r="Y72" s="42"/>
       <c r="Z72" s="1">
         <v>20</v>
       </c>
-      <c r="AA72" s="50">
+      <c r="AA72" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC72" s="53"/>
+      <c r="AC72" s="45"/>
     </row>
     <row r="73" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y73" s="30"/>
+      <c r="Y73" s="43"/>
       <c r="Z73" s="13">
         <v>24</v>
       </c>
-      <c r="AA73" s="51">
+      <c r="AA73" s="38">
         <v>0.99999999908549497</v>
       </c>
       <c r="AB73" s="13"/>
-      <c r="AC73" s="54"/>
+      <c r="AC73" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:W42"/>
     <mergeCell ref="Y51:AC51"/>
     <mergeCell ref="Z52:AB52"/>
     <mergeCell ref="Y53:Y58"/>
@@ -2841,12 +2901,6 @@
     <mergeCell ref="Y66:Y73"/>
     <mergeCell ref="AC59:AC65"/>
     <mergeCell ref="AC66:AC73"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:W42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2867,35 +2921,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/exceedances/model_summary.xlsx
+++ b/Figures/summaries_csvs/exceedances/model_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/exceedances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F3452-D67B-974B-BAFB-0C5C1FE60D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFE3C7-13BF-CA40-AD21-EC12549B4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
     <sheet name="PCAs" sheetId="2" r:id="rId2"/>
+    <sheet name="HDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="88">
   <si>
     <t>Analyte</t>
   </si>
@@ -274,6 +275,36 @@
   </si>
   <si>
     <t>Table X. Summary of Agricultural Irrigation Exceedance Probabiities</t>
+  </si>
+  <si>
+    <t>HDS Score</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>Monsoon Higher</t>
+  </si>
+  <si>
+    <t>(-) relationship</t>
+  </si>
+  <si>
+    <t>(+) relationship</t>
+  </si>
+  <si>
+    <t>Table X. Summary of individual analyte modeling</t>
+  </si>
+  <si>
+    <t>almost signif (-) proximity relationship</t>
   </si>
 </sst>
 </file>
@@ -311,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +377,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -627,6 +664,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,6 +1055,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Probability of Exceedance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2018,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V46" workbookViewId="0">
-      <selection activeCell="AI72" sqref="AI72"/>
+    <sheetView topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="AG72" sqref="AG72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2132,9 @@
     <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2912,7 +3013,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4086,4 +4187,317 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
+  <dimension ref="B2:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="43"/>
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="43"/>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="57"/>
+      <c r="C15" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="43"/>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="43"/>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>